--- a/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
+++ b/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="696" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="696" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="10.証明書ストア" sheetId="11" r:id="rId13"/>
     <sheet name="11.証明書失効ディレクトリ" sheetId="12" r:id="rId14"/>
     <sheet name="12.tls_cipher_suite" sheetId="15" r:id="rId15"/>
+    <sheet name="13.proxy cert" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="371">
   <si>
     <t>証明書</t>
     <rPh sb="0" eb="3">
@@ -2073,22 +2074,12 @@
   </si>
   <si>
     <t>テストクライアント起動
-% ./tls-test --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/permission_crl_dir/B/client/client.crt --tls_key_file ./test_dir/permission_crl_dir/B/client/client.key  --tls_ca_certificate_path ./test_dir/permission_crl_dir/B/cacerts_all --tls_ca_revocation_path ./test_dir/permission_crl_dir/A/crls/server/root/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストクライアント起動
 % ./tls-test --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/permission_crl_dir/B/client/client.crt --tls_key_file ./test_dir/permission_crl_dir/B/client/client.key  --tls_ca_certificate_path ./test_dir/permission_crl_dir/B/cacerts_all --tls_ca_revocation_path ./test_dir/permission_crl_dir/A/crls/server/root_bad_permissions</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>テストクライアント起動
 % ./tls-test --allow_no_crl --tls_certificate_file ./test_dir/A/client/client.crt --tls_key_file ./test_dir/A/client/client.key --tls_ca_certificate_path ./test_dir/A/cacerts_all --tls_cipher_suite TLS_AES_128_GCM_SHA256:TLS_CHACHA20_POLY1305_SHA256:TLS_AES_128_CCM_SHA256:TLS_AES_128_CCM_8_SHA256</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストクライアント起動
-% ./tls-test --allow_no_crl --tls_certificate_file ./test_dir/A/client/client.crt --tls_key_file ./test_dir/A/client/client.key --tls_ca_certificate_path ./test_dir/A/cacerts_all --tls_cipher_suite TLS_AES_256_GCM_SHA384</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2348,6 +2339,242 @@
     <t>certs-chain_test.xlsx を参照</t>
     <rPh sb="23" eb="25">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tls_cipher_suite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proxy cert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* クライアント proxy 証明書: A</t>
+    <rPh sb="15" eb="18">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/permission_crl_dir/B/client/client.crt --tls_key_file ./test_dir/permission_crl_dir/B/client/client.key  --tls_ca_certificate_path ./test_dir/permission_crl_dir/B/cacerts_all --tls_ca_revocation_path ./test_dir/permission_crl_dir/A/crls/server/root/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --proxy_cert --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --proxy_cert --mutual_authentication
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --allow_no_crl --tls_certificate_file ./test_dir/A/client/client.crt --tls_key_file ./test_dir/A/client/client.key --tls_ca_certificate_path ./test_dir/A/cacerts_all --tls_cipher_suite TLS_AES_256_GCM_SHA384</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% X509_USER_PROXY=./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --proxy_cert --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストクライアント起動
+% cp ./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt /tmp/x509up_u${UID}
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --proxy_cert --mutual_authentication
+% rm /tmp/x509up_u${UID}
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% cp ./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt /tmp/x509up_u${UID}
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --proxy_cert --mutual_authentication
+% rm /tmp/x509up_u${UID}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストクライアント起動
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/client_under_root/client.crt --tls_key_file test_dir/proxy_cert/A/client_under_root/client.key --mutual_authentication
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストクライアント起動
+% X509_USER_PROXY=./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/client_under_root/client.crt --tls_key_file test_dir/proxy_cert/A/client_under_root/client.key --mutual_authentication
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% X509_USER_PROXY=./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/client_under_root/client.crt --tls_key_file test_dir/proxy_cert/A/client_under_root/client.key --proxy_cert --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/server_under_root/server.crt --tls_key_file test_dir/proxy_cert/A/server_under_root/server.key --build_chain --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% cp ./test_dir/proxy_cert/A/client_under_root/client_cat_all_bad_permissions.crt /tmp/x509up_u${UID}
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --proxy_cert --mutual_authentication
+% rm /tmp/x509up_u${UID}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストクライアント起動
+% X509_USER_PROXY=./test_dir/proxy_cert/A/client_under_root/client_cat_all.crt ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/client_under_root/client.crt --tls_key_file test_dir/proxy_cert/A/client_under_root/client.key --proxy_cert --mutual_authentication
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --once --verify_only --allow_no_crl --debug_level 1 --tls_ca_certificate_path test_dir/proxy_cert/A/cacerts_root/ --tls_certificate_file test_dir/proxy_cert/A/client_under_root/client.crt --tls_key_file test_dir/proxy_cert/A/client_under_root/client.key --proxy_cert --mutual_authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client 側 proxy 指定なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">client 側 proxy 指定あり (環境変数) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">client 側 proxy 指定あり (ファイル) </t>
+  </si>
+  <si>
+    <t>server 側 proxy 指定なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>client は proxy 指定ありだが
+server は proxy 指定なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proxy cert ファイルが正しく設定され、server, client 双方で proxy 指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">proxy cert ファイルのパーミッション 644 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proxy cert ファイルなし、client に proxy 設定あり/user cert あり、server 側 にproxy 指定なしで user cert 認証成功するか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proxy cert ファイルなし、client に proxy 設定なし/user cert あり、server 側 にproxy 指定なしで user cert 認証成功するか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proxy cert ファイルあり、client に proxy 設定なし/user cert あり、server 側 にproxy 指定なしで user cert 認証成功するか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーで起動しないこと</t>
+    <rPh sb="4" eb="6">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証に成功すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証に失敗すること</t>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバの log に "a TLS session established with proxy certificate"  が存在すること</t>
+    <rPh sb="67" eb="69">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバの log に "a TLS session established with end-entity certificate"  が存在すること</t>
+    <rPh sb="72" eb="74">
+      <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2594,7 +2821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2809,6 +3036,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4111,9 +4375,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4123,7 +4387,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +4399,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4145,7 +4409,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>109</v>
@@ -4157,7 +4421,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4167,7 +4431,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -4179,7 +4443,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4189,7 +4453,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>28</v>
@@ -4201,7 +4465,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
@@ -4213,7 +4477,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4223,7 +4487,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>30</v>
@@ -4235,7 +4499,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
@@ -4247,7 +4511,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
@@ -4257,7 +4521,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>32</v>
@@ -4269,7 +4533,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
@@ -4281,7 +4545,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -4291,7 +4555,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>43</v>
@@ -4303,7 +4567,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
@@ -4315,7 +4579,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
@@ -4325,7 +4589,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
@@ -4335,17 +4599,17 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -4356,7 +4620,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4367,7 +4631,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
@@ -4378,7 +4642,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
@@ -4389,7 +4653,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
@@ -4400,7 +4664,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
@@ -4411,7 +4675,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4422,7 +4686,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4433,7 +4697,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -4444,7 +4708,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4455,7 +4719,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4466,7 +4730,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4477,7 +4741,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4502,17 +4766,17 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="82.5" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4521,7 +4785,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -4530,7 +4794,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>37</v>
@@ -4539,7 +4803,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
@@ -4548,14 +4812,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
@@ -4576,7 +4840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>77</v>
       </c>
@@ -4587,7 +4851,7 @@
         <v>225</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>224</v>
@@ -4597,7 +4861,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -4619,19 +4883,19 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="42.08984375" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
+    <col min="2" max="2" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4642,7 +4906,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -4653,7 +4917,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>37</v>
@@ -4663,7 +4927,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
@@ -4674,7 +4938,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>89</v>
       </c>
@@ -4685,7 +4949,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>177</v>
@@ -4696,7 +4960,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>137</v>
@@ -4707,7 +4971,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>178</v>
@@ -4718,7 +4982,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>217</v>
@@ -4729,7 +4993,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>168</v>
       </c>
@@ -4740,7 +5004,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>268</v>
@@ -4751,7 +5015,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4760,7 +5024,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="68" t="s">
         <v>151</v>
       </c>
@@ -4798,11 +5062,11 @@
         <v>93</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G14" s="75"/>
     </row>
-    <row r="15" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
         <v>78</v>
       </c>
@@ -4819,11 +5083,11 @@
         <v>94</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="56" t="s">
         <v>79</v>
       </c>
@@ -4840,11 +5104,11 @@
         <v>94</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="56" t="s">
         <v>218</v>
       </c>
@@ -4861,7 +5125,7 @@
         <v>94</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G17" s="21"/>
     </row>
@@ -4879,18 +5143,18 @@
       <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="39.6328125" customWidth="1"/>
-    <col min="3" max="3" width="34.6328125" customWidth="1"/>
-    <col min="4" max="4" width="64.08984375" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="64.125" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -4901,7 +5165,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>37</v>
@@ -4912,7 +5176,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>38</v>
@@ -4923,7 +5187,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>92</v>
       </c>
@@ -4934,7 +5198,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>181</v>
@@ -4945,7 +5209,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>95</v>
@@ -4956,7 +5220,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>171</v>
       </c>
@@ -4967,10 +5231,10 @@
       <c r="F7" s="10"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4978,7 +5242,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4987,7 +5251,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
@@ -5008,7 +5272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="76" t="s">
         <v>80</v>
       </c>
@@ -5019,7 +5283,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E11" s="69" t="s">
         <v>93</v>
@@ -5029,7 +5293,7 @@
       </c>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="77" t="s">
         <v>172</v>
       </c>
@@ -5050,7 +5314,7 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5059,7 +5323,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5068,7 +5332,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5077,7 +5341,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5086,7 +5350,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5110,18 +5374,18 @@
       <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.90625" customWidth="1"/>
-    <col min="2" max="2" width="44.36328125" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" customWidth="1"/>
-    <col min="4" max="4" width="71.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="71.625" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -5132,7 +5396,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>37</v>
@@ -5143,7 +5407,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
         <v>39</v>
@@ -5154,7 +5418,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>91</v>
       </c>
@@ -5166,7 +5430,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>182</v>
@@ -5178,7 +5442,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>100</v>
@@ -5190,7 +5454,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" s="55" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="55" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>140</v>
@@ -5201,9 +5465,9 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="19"/>
@@ -5212,10 +5476,10 @@
       <c r="F8" s="10"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5223,7 +5487,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5232,7 +5496,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -5253,7 +5517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="68" t="s">
         <v>152</v>
       </c>
@@ -5264,7 +5528,7 @@
         <v>103</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E12" s="71" t="s">
         <v>93</v>
@@ -5274,7 +5538,7 @@
       </c>
       <c r="G12" s="70"/>
     </row>
-    <row r="13" spans="1:8" ht="65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="68" t="s">
         <v>173</v>
       </c>
@@ -5295,7 +5559,7 @@
       </c>
       <c r="G13" s="70"/>
     </row>
-    <row r="14" spans="1:8" ht="78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="56" t="s">
         <v>174</v>
       </c>
@@ -5306,7 +5570,7 @@
         <v>139</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>93</v>
@@ -5326,22 +5590,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="33.36328125" customWidth="1"/>
-    <col min="3" max="3" width="44.7265625" customWidth="1"/>
-    <col min="4" max="4" width="67.7265625" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -5352,7 +5616,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
         <v>37</v>
@@ -5363,7 +5627,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
         <v>39</v>
@@ -5374,7 +5638,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>141</v>
       </c>
@@ -5385,7 +5649,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>222</v>
@@ -5396,7 +5660,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>169</v>
@@ -5407,7 +5671,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>142</v>
@@ -5418,7 +5682,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>170</v>
@@ -5429,7 +5693,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5440,10 +5704,10 @@
       <c r="F9" s="10"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5451,7 +5715,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="19"/>
@@ -5460,7 +5724,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -5481,7 +5745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>153</v>
       </c>
@@ -5492,7 +5756,7 @@
         <v>144</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>221</v>
@@ -5502,7 +5766,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>154</v>
       </c>
@@ -5513,7 +5777,7 @@
         <v>146</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>175</v>
@@ -5523,7 +5787,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>155</v>
       </c>
@@ -5534,7 +5798,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>93</v>
@@ -5544,7 +5808,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>156</v>
       </c>
@@ -5555,7 +5819,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>176</v>
@@ -5565,10 +5829,10 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="29.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="33.65" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="29.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="33.6" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5581,20 +5845,20 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" customWidth="1"/>
-    <col min="4" max="4" width="69.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="69.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -5603,7 +5867,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -5612,7 +5876,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>37</v>
@@ -5621,7 +5885,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>38</v>
@@ -5630,14 +5894,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
@@ -5658,7 +5922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>234</v>
       </c>
@@ -5667,28 +5931,28 @@
         <v>240</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>239</v>
       </c>
@@ -5697,26 +5961,399 @@
         <v>236</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>235</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="21" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="D12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.25" style="80" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="80" customWidth="1"/>
+    <col min="4" max="4" width="70.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="83"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A10" s="90" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="86" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" s="90" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A14" s="90" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="86" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="90" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="84"/>
+      <c r="C18" s="88" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A21" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="90"/>
+      <c r="C21" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5733,62 +6370,62 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>81</v>
       </c>
@@ -5808,7 +6445,7 @@
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5817,20 +6454,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.08984375" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" customWidth="1"/>
-    <col min="4" max="4" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5844,7 +6481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5855,10 +6492,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5868,7 +6505,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5878,7 +6515,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5888,7 +6525,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5898,7 +6535,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5908,7 +6545,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5918,7 +6555,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5930,7 +6567,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5940,7 +6577,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5950,7 +6587,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5959,6 +6596,30 @@
         <v>157</v>
       </c>
       <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="79">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5971,23 +6632,23 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="19" customWidth="1"/>
-    <col min="2" max="3" width="26.6328125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" style="19" customWidth="1"/>
-    <col min="5" max="6" width="28.90625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="76.7265625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="20.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="29.453125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="8.125" style="19" customWidth="1"/>
+    <col min="2" max="3" width="26.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="26.125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="28.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="76.75" style="19" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.5" style="19" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -5996,7 +6657,7 @@
       <c r="D1" s="10"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -6004,7 +6665,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>37</v>
@@ -6012,7 +6673,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>39</v>
@@ -6020,7 +6681,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -6028,7 +6689,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>84</v>
@@ -6036,7 +6697,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>186</v>
@@ -6044,7 +6705,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="28" t="s">
         <v>190</v>
@@ -6052,7 +6713,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="28" t="s">
         <v>205</v>
@@ -6060,7 +6721,7 @@
       <c r="C9" s="28"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="28" t="s">
         <v>206</v>
@@ -6068,7 +6729,7 @@
       <c r="C10" s="28"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="28" t="s">
         <v>191</v>
@@ -6082,7 +6743,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="28" t="s">
         <v>192</v>
@@ -6096,7 +6757,7 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
     </row>
-    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="28" t="s">
         <v>202</v>
@@ -6110,7 +6771,7 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="28" t="s">
         <v>203</v>
@@ -6124,7 +6785,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="28" t="s">
         <v>204</v>
@@ -6138,13 +6799,13 @@
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>12</v>
       </c>
@@ -6168,7 +6829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +6849,7 @@
         <v>196</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>187</v>
@@ -6198,7 +6859,7 @@
       </c>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="66"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -6212,7 +6873,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="66"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -6222,7 +6883,7 @@
         <v>197</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>187</v>
@@ -6232,7 +6893,7 @@
       </c>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A21" s="66"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -6246,7 +6907,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="66"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -6256,7 +6917,7 @@
         <v>198</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>187</v>
@@ -6266,7 +6927,7 @@
       </c>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -6280,7 +6941,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +6955,7 @@
         <v>196</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>18</v>
@@ -6304,7 +6965,7 @@
       </c>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="66"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -6318,7 +6979,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -6328,7 +6989,7 @@
         <v>197</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>50</v>
@@ -6338,7 +6999,7 @@
       </c>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -6352,7 +7013,7 @@
       <c r="I27" s="27"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="66"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -6362,7 +7023,7 @@
         <v>198</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>50</v>
@@ -6372,7 +7033,7 @@
       </c>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="66"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -6386,7 +7047,7 @@
       <c r="I29" s="27"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
         <v>207</v>
       </c>
@@ -6400,7 +7061,7 @@
         <v>196</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>50</v>
@@ -6410,7 +7071,7 @@
       </c>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="66"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6424,7 +7085,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="66"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -6434,7 +7095,7 @@
         <v>197</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>18</v>
@@ -6444,7 +7105,7 @@
       </c>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="66"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -6458,7 +7119,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A34" s="66"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -6468,7 +7129,7 @@
         <v>198</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>50</v>
@@ -6478,7 +7139,7 @@
       </c>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="66"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -6492,7 +7153,7 @@
       <c r="I35" s="27"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>210</v>
       </c>
@@ -6506,7 +7167,7 @@
         <v>196</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>50</v>
@@ -6516,7 +7177,7 @@
       </c>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="66"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -6530,7 +7191,7 @@
       <c r="I37" s="27"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A38" s="66"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -6540,7 +7201,7 @@
         <v>197</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>50</v>
@@ -6550,7 +7211,7 @@
       </c>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A39" s="66"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -6564,7 +7225,7 @@
       <c r="I39" s="27"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A40" s="66"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -6574,7 +7235,7 @@
         <v>198</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>18</v>
@@ -6584,7 +7245,7 @@
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="66"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -6598,7 +7259,7 @@
       <c r="I41" s="27"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>211</v>
       </c>
@@ -6612,7 +7273,7 @@
         <v>196</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>18</v>
@@ -6622,7 +7283,7 @@
       </c>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A43" s="66"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -6636,7 +7297,7 @@
       <c r="I43" s="27"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A44" s="66"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -6646,7 +7307,7 @@
         <v>197</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>18</v>
@@ -6656,7 +7317,7 @@
       </c>
       <c r="J44" s="21"/>
     </row>
-    <row r="45" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A45" s="66"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -6670,7 +7331,7 @@
       <c r="I45" s="27"/>
       <c r="J45" s="21"/>
     </row>
-    <row r="46" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A46" s="66"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -6680,7 +7341,7 @@
         <v>198</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H46" s="22" t="s">
         <v>50</v>
@@ -6690,7 +7351,7 @@
       </c>
       <c r="J46" s="21"/>
     </row>
-    <row r="47" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A47" s="30"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
@@ -6704,7 +7365,7 @@
       <c r="I47" s="27"/>
       <c r="J47" s="21"/>
     </row>
-    <row r="48" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A48" s="66" t="s">
         <v>212</v>
       </c>
@@ -6718,7 +7379,7 @@
         <v>196</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>17</v>
@@ -6728,7 +7389,7 @@
       </c>
       <c r="J48" s="21"/>
     </row>
-    <row r="49" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="66"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -6742,7 +7403,7 @@
       <c r="I49" s="27"/>
       <c r="J49" s="21"/>
     </row>
-    <row r="50" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A50" s="66"/>
       <c r="B50" s="67"/>
       <c r="C50" s="23"/>
@@ -6752,7 +7413,7 @@
         <v>197</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>17</v>
@@ -6762,7 +7423,7 @@
       </c>
       <c r="J50" s="21"/>
     </row>
-    <row r="51" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A51" s="66"/>
       <c r="B51" s="67"/>
       <c r="C51" s="23"/>
@@ -6776,7 +7437,7 @@
       <c r="I51" s="27"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A52" s="66"/>
       <c r="B52" s="67"/>
       <c r="C52" s="23"/>
@@ -6786,7 +7447,7 @@
         <v>198</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>17</v>
@@ -6796,7 +7457,7 @@
       </c>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A53" s="30"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
@@ -6810,7 +7471,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
         <v>213</v>
       </c>
@@ -6824,7 +7485,7 @@
         <v>196</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H54" s="22" t="s">
         <v>187</v>
@@ -6834,7 +7495,7 @@
       </c>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -6848,7 +7509,7 @@
       <c r="I55" s="27"/>
       <c r="J55" s="21"/>
     </row>
-    <row r="56" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -6858,7 +7519,7 @@
         <v>197</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>187</v>
@@ -6868,7 +7529,7 @@
       </c>
       <c r="J56" s="21"/>
     </row>
-    <row r="57" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -6882,7 +7543,7 @@
       <c r="I57" s="27"/>
       <c r="J57" s="21"/>
     </row>
-    <row r="58" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -6892,7 +7553,7 @@
         <v>198</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H58" s="22" t="s">
         <v>187</v>
@@ -6902,7 +7563,7 @@
       </c>
       <c r="J58" s="21"/>
     </row>
-    <row r="59" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -6916,7 +7577,7 @@
       <c r="I59" s="27"/>
       <c r="J59" s="21"/>
     </row>
-    <row r="60" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A60" s="58" t="s">
         <v>214</v>
       </c>
@@ -6930,7 +7591,7 @@
         <v>196</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>187</v>
@@ -6940,7 +7601,7 @@
       </c>
       <c r="J60" s="21"/>
     </row>
-    <row r="61" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -6954,7 +7615,7 @@
       <c r="I61" s="27"/>
       <c r="J61" s="21"/>
     </row>
-    <row r="62" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -6964,7 +7625,7 @@
         <v>197</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>187</v>
@@ -6974,7 +7635,7 @@
       </c>
       <c r="J62" s="21"/>
     </row>
-    <row r="63" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -6988,7 +7649,7 @@
       <c r="I63" s="27"/>
       <c r="J63" s="21"/>
     </row>
-    <row r="64" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -6998,7 +7659,7 @@
         <v>198</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>187</v>
@@ -7008,7 +7669,7 @@
       </c>
       <c r="J64" s="21"/>
     </row>
-    <row r="65" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
@@ -7022,7 +7683,7 @@
       <c r="I65" s="27"/>
       <c r="J65" s="21"/>
     </row>
-    <row r="66" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A66" s="58" t="s">
         <v>215</v>
       </c>
@@ -7036,7 +7697,7 @@
         <v>196</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H66" s="22" t="s">
         <v>187</v>
@@ -7046,7 +7707,7 @@
       </c>
       <c r="J66" s="21"/>
     </row>
-    <row r="67" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -7060,7 +7721,7 @@
       <c r="I67" s="27"/>
       <c r="J67" s="21"/>
     </row>
-    <row r="68" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -7070,7 +7731,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H68" s="22" t="s">
         <v>187</v>
@@ -7080,7 +7741,7 @@
       </c>
       <c r="J68" s="21"/>
     </row>
-    <row r="69" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -7094,7 +7755,7 @@
       <c r="I69" s="27"/>
       <c r="J69" s="21"/>
     </row>
-    <row r="70" spans="1:10" ht="78" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -7104,7 +7765,7 @@
         <v>198</v>
       </c>
       <c r="G70" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H70" s="22" t="s">
         <v>187</v>
@@ -7114,7 +7775,7 @@
       </c>
       <c r="J70" s="21"/>
     </row>
-    <row r="71" spans="1:10" ht="65" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
@@ -7143,52 +7804,52 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="60.36328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7209,7 +7870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>54</v>
       </c>
@@ -7220,7 +7881,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>50</v>
@@ -7230,7 +7891,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="23"/>
       <c r="C11" s="27"/>
@@ -7241,7 +7902,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>55</v>
       </c>
@@ -7250,7 +7911,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>18</v>
@@ -7260,7 +7921,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -7271,7 +7932,7 @@
       <c r="F13" s="27"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>56</v>
       </c>
@@ -7282,7 +7943,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E14" s="22" t="s">
         <v>50</v>
@@ -7292,7 +7953,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -7318,32 +7979,32 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" customWidth="1"/>
-    <col min="4" max="4" width="59.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="35.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="59.875" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>62</v>
@@ -7351,7 +8012,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>63</v>
@@ -7359,14 +8020,14 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>188</v>
@@ -7374,7 +8035,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>120</v>
@@ -7382,7 +8043,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>121</v>
@@ -7390,12 +8051,12 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -7416,7 +8077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>59</v>
       </c>
@@ -7427,7 +8088,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>50</v>
@@ -7437,7 +8098,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="23"/>
       <c r="C12" s="27"/>
@@ -7448,7 +8109,7 @@
       <c r="F12" s="27"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>112</v>
       </c>
@@ -7459,7 +8120,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>18</v>
@@ -7469,7 +8130,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -7480,7 +8141,7 @@
       <c r="F14" s="27"/>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>116</v>
       </c>
@@ -7491,7 +8152,7 @@
         <v>114</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>50</v>
@@ -7501,7 +8162,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="23"/>
       <c r="C16" s="27"/>
@@ -7512,7 +8173,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="43" t="s">
         <v>117</v>
       </c>
@@ -7523,7 +8184,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>18</v>
@@ -7533,7 +8194,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="39"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -7558,17 +8219,17 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.453125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" customWidth="1"/>
-    <col min="4" max="4" width="63.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -7579,7 +8240,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -7590,7 +8251,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="14.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
@@ -7601,7 +8262,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="19" t="s">
         <v>64</v>
@@ -7612,7 +8273,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="19" t="s">
         <v>63</v>
@@ -7623,7 +8284,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="19" t="s">
         <v>65</v>
@@ -7634,7 +8295,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>118</v>
       </c>
@@ -7644,7 +8305,7 @@
       <c r="E7" s="10"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="19" t="s">
         <v>62</v>
@@ -7654,7 +8315,7 @@
       <c r="E8" s="10"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="19" t="s">
         <v>122</v>
@@ -7664,7 +8325,7 @@
       <c r="E9" s="10"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>119</v>
@@ -7674,7 +8335,7 @@
       <c r="E10" s="10"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>189</v>
@@ -7684,7 +8345,7 @@
       <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>120</v>
@@ -7694,7 +8355,7 @@
       <c r="E12" s="10"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>121</v>
@@ -7704,7 +8365,7 @@
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -7713,7 +8374,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
@@ -7734,7 +8395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="68" t="s">
         <v>73</v>
       </c>
@@ -7745,7 +8406,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E16" s="71" t="s">
         <v>50</v>
@@ -7755,7 +8416,7 @@
       </c>
       <c r="G16" s="70"/>
     </row>
-    <row r="17" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="73"/>
@@ -7766,7 +8427,7 @@
       <c r="F17" s="74"/>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>74</v>
       </c>
@@ -7777,7 +8438,7 @@
         <v>107</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>18</v>
@@ -7787,7 +8448,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -7798,7 +8459,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>75</v>
       </c>
@@ -7809,7 +8470,7 @@
         <v>108</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>18</v>
@@ -7819,7 +8480,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="18"/>
       <c r="C21" s="8"/>
@@ -7830,7 +8491,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
         <v>129</v>
       </c>
@@ -7841,7 +8502,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>50</v>
@@ -7851,7 +8512,7 @@
       </c>
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -7862,7 +8523,7 @@
       <c r="F23" s="52"/>
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
         <v>130</v>
       </c>
@@ -7873,7 +8534,7 @@
         <v>124</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>18</v>
@@ -7883,7 +8544,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -7894,7 +8555,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="44" t="s">
         <v>131</v>
       </c>
@@ -7905,7 +8566,7 @@
         <v>128</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E26" s="47" t="s">
         <v>50</v>
@@ -7915,7 +8576,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="48"/>
       <c r="B27" s="18"/>
       <c r="C27" s="8"/>
@@ -7926,7 +8587,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
         <v>132</v>
       </c>
@@ -7937,7 +8598,7 @@
         <v>127</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>18</v>
@@ -7947,7 +8608,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="48"/>
       <c r="B29" s="18"/>
       <c r="C29" s="8"/>
@@ -7972,18 +8633,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" customWidth="1"/>
-    <col min="3" max="3" width="44.08984375" customWidth="1"/>
-    <col min="4" max="4" width="63.90625" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -7992,7 +8653,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -8001,7 +8662,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
         <v>62</v>
@@ -8010,7 +8671,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="19" t="s">
         <v>122</v>
@@ -8019,7 +8680,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="19" t="s">
         <v>164</v>
@@ -8028,14 +8689,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
@@ -8056,7 +8717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="60" t="s">
         <v>76</v>
       </c>
@@ -8067,7 +8728,7 @@
         <v>167</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>161</v>
@@ -8077,7 +8738,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="64"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -8090,7 +8751,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
         <v>163</v>
       </c>
@@ -8101,7 +8762,7 @@
         <v>184</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>162</v>
@@ -8111,7 +8772,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="64"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65"/>

--- a/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
+++ b/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="696" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="696" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="3.クライアント秘密鍵パスワードあり・なし" sheetId="6" r:id="rId6"/>
     <sheet name="4.サーバ証明書のみ" sheetId="7" r:id="rId7"/>
     <sheet name="5.サーバ証明書+クライアント証明書" sheetId="8" r:id="rId8"/>
-    <sheet name="6.tls_client_ca_certificate..." sheetId="13" r:id="rId9"/>
+    <sheet name="6.tls_ca_peer_verify_chain_path" sheetId="13" r:id="rId9"/>
     <sheet name="7.TLS の traffic key 更新抑制機能" sheetId="14" r:id="rId10"/>
     <sheet name="8.秘密鍵" sheetId="9" r:id="rId11"/>
     <sheet name="9.証明書" sheetId="10" r:id="rId12"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="426">
   <si>
     <t>証明書</t>
     <rPh sb="0" eb="3">
@@ -171,19 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記を　A と B の　2系統用意する</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* gfarm</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -646,10 +633,6 @@
     <t>5-3</t>
   </si>
   <si>
-    <t>6-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7-1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1260,24 +1243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">サーバ側 tls_client_ca_certificate_path のパーミッションが自身がアクセスできるユーザ・グループ </t>
-    <rPh sb="3" eb="4">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバ側 tls_client_ca_certificate_path のパーミッションを自身がアクセスできるユーザ・グループ に設定する</t>
-    <rPh sb="65" eb="67">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* サーバ側 tls_client_ca_certificate_path のパーミッション 自身がアクセスできるユーザ・グループ: ./B/cacerts_all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* 下記の証明書失効ディレクトリを用いる</t>
     <rPh sb="2" eb="4">
       <t>カキ</t>
@@ -1388,10 +1353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tls_client_ca_certificate_path　オプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>認証が成功すること</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1403,56 +1364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* 不正なクライアント証明書: A</t>
-    <rPh sb="2" eb="4">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tls_client_ca_certificate_path にクライアント側の正しいルート証明書、中間証明書を指定</t>
-    <rPh sb="38" eb="39">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ショウメイショ</t>
-    </rPh>
-    <rPh sb="50" eb="55">
-      <t>チュウカンショウメイショ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tls_client_ca_certificate_path にクライアント側の不正なルート証明書、中間証明書を指定</t>
-    <rPh sb="40" eb="42">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tls_client_ca_certificate_path にクライアント側の正しいルート証明書、中間証明書を指定する。サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_client_ca_certificate_path には B/cacerts_all を指定する。</t>
-    <rPh sb="63" eb="64">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>* テストサーバを下記のコマンドで起動しておく</t>
     <rPh sb="9" eb="11">
       <t>カキ</t>
@@ -1534,17 +1445,6 @@
   </si>
   <si>
     <t>* サーバ証明書ストアのパーミッション 自身がアクセスできるユーザ・グループ: ./A/cacerts_all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回はしない</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tls_client_ca_certificate_path にクライアント側の不正なルート証明書、中間証明書を指定する。サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_client_ca_certificate_path には B/cacerts_all を指定する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2030,11 +1930,6 @@
   </si>
   <si>
     <t>テストクライアント起動
-% ./tls-test --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/B/client/client.crt --tls_key_file ./test_dir/B/client/client.key --tls_ca_certificate_path ./test_dir/A/cacerts_all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストクライアント起動
 % ./tls-test --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/A/client/client.crt --tls_key_file ./test_dir/A/client/client.key --tls_ca_certificate_path ./test_dir/A/cacerts_all --buf_size 68157440 --tls_key_update 16777216 --debug_level 1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2242,16 +2137,6 @@
   </si>
   <si>
     <t>テストサーバー起動
-% ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/A/server/server.crt --tls_key_file ./test_dir/A/server/server.key --tls_ca_certificate_path ./test_dir/A_B/cacerts_all --tls_client_ca_certificate_path ./test_dir/B/cacerts_all --once</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストサーバー起動
-% ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/A/server/server.crt --tls_key_file ./test_dir/A/server/server.key --tls_ca_certificate_path ./test_dir/A_B/cacerts_all --tls_client_ca_certificate_path ./test_dir/A/cacerts_all --once</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストサーバー起動
 % ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/A/server/server.crt --tls_key_file ./test_dir/A/server/server.key --tls_ca_certificate_path ./test_dir/A/cacerts_all --buf_size 68157440 --tls_key_update 16777216 --once</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2271,11 +2156,6 @@
   <si>
     <t>テストサーバー起動
 % ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/cert_store/A/server/server.crt --tls_key_file ./test_dir/cert_store/A/server/server.key --tls_ca_certificate_path ./test_dir/cert_store/A/cacerts_all --once</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストサーバー起動
-% ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/cert_store/A/server/server.crt --tls_key_file ./test_dir/cert_store/A/server/server.key --tls_ca_certificate_path ./test_dir/cert_store/A/cacerts_all --tls_client_ca_certificate_path ./test_dir/cert_store/B/cacerts_all --once</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2576,6 +2456,576 @@
     <rPh sb="72" eb="74">
       <t>ソンザイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* 不正なサーバ証明書: B or C</t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* 不正なクライアント証明書: A or C</t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--build_chain を指定すると、その local にすべてのチェーンを構成する証明書が入ったストアを --tls_ca_certificate_path に指定する必要がある。以降のテストも同様。</t>
+    </r>
+    <rPh sb="48" eb="49">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側の tls_ca_peer_verify_chain_path にクライアント側の正しいルート証明書を指定</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tls_ca_peer_verify_chain_path が tls_ca_certificate_path に含まれる
+</t>
+    <rPh sb="56" eb="57">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tls_ca_peer_verify_chain_path が tls_ca_certificate_pathに含まれない
+</t>
+  </si>
+  <si>
+    <t>サーバ側の tls_ca_peer_verify_chain_path にクライアント側の不正なルート証明書を指定</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側の tls_ca_peer_verify_chain_path にサーバ側の正しいルート証明書を指定</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側の tls_ca_peer_verify_chain_path にサーバ側の不正なルート証明書を指定</t>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ・クライアント側の tls_ca_peer_verify_chain_path にそれぞれクライアント・サーバ側の正しいルート証明書を指定</t>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ・クライアント側の tls_ca_peer_verify_chain_path にそれぞれクライアント・サーバ側の不正なルート証明書を指定</t>
+    <rPh sb="10" eb="11">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path　オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* サーバ側 tls_ca_peer_verify_chain_path のパーミッション 自身がアクセスできるユーザ・グループ: ./B/cacerts_all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバ側 tls_ca_peer_verify_chain_path のパーミッションが自身がアクセスできるユーザ・グループ </t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ側 tls_ca_peer_verify_chain_path のパーミッションを自身がアクセスできるユーザ・グループ に設定する</t>
+    <rPh sb="64" eb="66">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --allow_no_crl --mutual_authentication --tls_certificate_file ./test_dir/cert_store/A/server/server.crt --tls_key_file ./test_dir/cert_store/A/server/server.key --tls_ca_certificate_path ./test_dir/cert_store/A/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/cert_store/B/cacerts_all --once</t>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>* 不正な中間認証局から発行したサーバ証明書: ./test_dir/A/server2/server.crt</t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 不正な中間認証局から発行したクライアント証明書: ./test_dir/B/client2/client.crt </t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不正な中間認証局から発行したクライアント証明書を指定
+</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server2/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server2/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行した証明書</t>
+    <rPh sb="14" eb="17">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不正な中間認証局から発行したサーバ・クライアント証明書を指定
+</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不正な中間認証局から発行したサーバ証明書を指定
+</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client2/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client2/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したクライアント証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアント側の --tls_certificate_file、--tls_key_fileには B/client2/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2 を指定する。</t>
+    <rPh sb="143" eb="144">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したクライアント証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。
+サーバ側の --tls_certificate_file、--tls_key_fileには B/server2/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2 を指定する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server2/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server2/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client2/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client2/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記を　A, B, C の 3系統用意する</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、C の系統、中間認証局4、サーバ証明書2、クライアント証明書2 が存在するのは一部のテスト</t>
+    <rPh sb="7" eb="9">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したサーバ・クライアント証明書を指定する。
+サーバ側の --tls_certificate_file、--tls_key_fileには B/server2/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアント側の --tls_certificate_file、--tls_key_fileには B/client2/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にクライアント側の正しいルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にクライアント側の正しいルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にクライアント側の不正なルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+    <rPh sb="37" eb="39">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にクライアント側の不正なルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には C/cacerts_all を指定する。</t>
+    <rPh sb="37" eb="39">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/C/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にサーバ側の正しいルート証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にサーバ側の正しいルート証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にサーバ側の不正なルート証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
+    <rPh sb="34" eb="36">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にサーバ側の不正なルート証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には C/cacerts_all を指定する。</t>
+    <rPh sb="34" eb="36">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/C/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの正しいルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの正しいルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの不正なルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
+    <rPh sb="44" eb="46">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの不正なルート証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には C/cacerts_all を指定する。
+クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には C/cacerts_all を指定する。</t>
+    <rPh sb="44" eb="46">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2654,7 +3104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2664,12 +3114,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,7 +3265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2980,58 +3424,40 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3073,6 +3499,34 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3562,13 +4016,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3582,8 +4036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374357" y="1244600"/>
-          <a:ext cx="0" cy="279400"/>
+          <a:off x="2641057" y="2317750"/>
+          <a:ext cx="0" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3609,13 +4063,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3629,8 +4083,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374357" y="1943100"/>
-          <a:ext cx="0" cy="279400"/>
+          <a:off x="2641057" y="3041650"/>
+          <a:ext cx="0" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3656,13 +4110,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>545557</xdr:colOff>
+      <xdr:colOff>583657</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -3676,8 +4130,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374357" y="2641600"/>
-          <a:ext cx="0" cy="260350"/>
+          <a:off x="2641057" y="3771900"/>
+          <a:ext cx="0" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3752,6 +4206,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>サーバ証明書</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3809,6 +4268,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>クライアント証明書</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3912,13 +4376,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>153784</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3978,13 +4442,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466182</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>312398</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4036,13 +4500,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>466182</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4079,6 +4543,390 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="4724400"/>
+          <a:ext cx="1835150" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サーバ証明書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139157</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568157" y="4940300"/>
+          <a:ext cx="327568" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361407</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139157</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733007" y="4721225"/>
+          <a:ext cx="1835150" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中間証明書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583657</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593182</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2641057" y="4476750"/>
+          <a:ext cx="9525" cy="244475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466182</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243932</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895182" y="5387975"/>
+          <a:ext cx="1835150" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クライアント証明書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139157</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466182</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568157" y="4940300"/>
+          <a:ext cx="327025" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="961482" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4857750"/>
+          <a:ext cx="961482" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中間認証局</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4389,7 +5237,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4412,7 +5260,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4433,7 +5281,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4456,7 +5304,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4469,7 +5317,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4490,7 +5338,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -4503,7 +5351,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4524,7 +5372,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4537,7 +5385,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4558,7 +5406,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -4571,7 +5419,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4601,12 +5449,12 @@
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -4778,7 +5626,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="6"/>
@@ -4787,7 +5635,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
@@ -4797,7 +5645,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4806,7 +5654,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -4828,13 +5676,13 @@
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>10</v>
@@ -4842,22 +5690,22 @@
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -4866,7 +5714,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="21" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -4897,7 +5745,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="19"/>
@@ -4908,7 +5756,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="19"/>
@@ -4920,7 +5768,7 @@
     <row r="3" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="19"/>
       <c r="E3" s="10"/>
@@ -4930,7 +5778,7 @@
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -4940,7 +5788,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="19"/>
@@ -4952,7 +5800,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -4963,7 +5811,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -4974,7 +5822,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -4985,7 +5833,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -4995,7 +5843,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="19"/>
@@ -5007,7 +5855,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -5033,99 +5881,99 @@
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="75"/>
+      <c r="D14" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="56" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G17" s="21"/>
     </row>
@@ -5156,7 +6004,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="19"/>
@@ -5168,7 +6016,7 @@
     <row r="2" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5179,7 +6027,7 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5189,7 +6037,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="19"/>
@@ -5201,7 +6049,7 @@
     <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="36"/>
@@ -5212,7 +6060,7 @@
     <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5222,7 +6070,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="19"/>
@@ -5234,7 +6082,7 @@
     <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5260,59 +6108,59 @@
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C12" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="70"/>
-    </row>
-    <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="70"/>
+      <c r="D12" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
@@ -5370,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5387,7 +6235,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5399,7 +6247,7 @@
     <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5410,7 +6258,7 @@
     <row r="3" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5420,7 +6268,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="19"/>
@@ -5433,7 +6281,7 @@
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="36"/>
@@ -5445,7 +6293,7 @@
     <row r="6" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5457,7 +6305,7 @@
     <row r="7" spans="1:8" s="55" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>378</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5467,7 +6315,7 @@
     </row>
     <row r="8" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="19"/>
@@ -5479,7 +6327,7 @@
     <row r="9" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5505,78 +6353,78 @@
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="70"/>
+      <c r="D12" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="70"/>
+      <c r="D13" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="56" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>138</v>
+        <v>379</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G14" s="46"/>
     </row>
@@ -5607,7 +6455,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -5619,7 +6467,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -5630,7 +6478,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5640,7 +6488,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="19"/>
@@ -5652,7 +6500,7 @@
     <row r="5" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="36"/>
@@ -5663,7 +6511,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -5674,7 +6522,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -5685,7 +6533,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -5695,7 +6543,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="19"/>
@@ -5707,7 +6555,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -5733,13 +6581,13 @@
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>10</v>
@@ -5747,85 +6595,85 @@
     </row>
     <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -5860,7 +6708,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="6"/>
@@ -5869,7 +6717,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
@@ -5879,7 +6727,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5888,7 +6736,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5910,13 +6758,13 @@
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>10</v>
@@ -5924,20 +6772,20 @@
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="58" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G7" s="21"/>
     </row>
@@ -5946,7 +6794,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="21" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
@@ -5954,20 +6802,20 @@
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="58" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G9" s="21"/>
     </row>
@@ -5976,7 +6824,7 @@
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="21" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -5999,359 +6847,359 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="80" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="80" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="80" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="74" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="74" customWidth="1"/>
     <col min="4" max="4" width="70.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.625" style="19" customWidth="1"/>
     <col min="6" max="6" width="32.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="83"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="80" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="80" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="80" t="s">
-        <v>326</v>
+      <c r="B4" s="74" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="78" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A8" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="80" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A8" s="90" t="s">
+      <c r="E9" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A10" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="85" t="s">
-        <v>345</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="90" t="s">
+      <c r="E11" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="79" t="s">
         <v>330</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>338</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" s="90" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="86" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="85" t="s">
-        <v>347</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="14"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="84"/>
+      <c r="C16" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A21" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="79" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A23" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="86" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>340</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="85" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="90" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="86" t="s">
-        <v>360</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>352</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A19" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="86" t="s">
-        <v>362</v>
-      </c>
-      <c r="D19" s="85" t="s">
+      <c r="E24" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="85" t="s">
-        <v>354</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A21" s="90" t="s">
-        <v>336</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="86" t="s">
-        <v>363</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="85" t="s">
-        <v>348</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A23" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="86" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>368</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -6364,70 +7212,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>81</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +7294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
@@ -6456,8 +7309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6492,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -6511,7 +7364,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6541,7 +7394,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6551,7 +7404,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6593,19 +7446,19 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="79">
+      <c r="A13" s="73">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>323</v>
+        <v>307</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>306</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -6614,10 +7467,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -6650,7 +7503,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6659,7 +7512,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6668,7 +7521,7 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6676,14 +7529,14 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6692,7 +7545,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6700,7 +7553,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6708,7 +7561,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="28" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="10"/>
@@ -6716,7 +7569,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="28" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="10"/>
@@ -6724,7 +7577,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="28" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="10"/>
@@ -6732,7 +7585,7 @@
     <row r="11" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="28" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="26"/>
@@ -6746,7 +7599,7 @@
     <row r="12" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="28" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="26"/>
@@ -6760,7 +7613,7 @@
     <row r="13" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="28" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="26"/>
@@ -6774,7 +7627,7 @@
     <row r="14" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="28" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="26"/>
@@ -6788,7 +7641,7 @@
     <row r="15" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="28" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="26"/>
@@ -6817,13 +7670,13 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>10</v>
@@ -6834,96 +7687,96 @@
         <v>14</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="46" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A22" s="66"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J22" s="21"/>
     </row>
@@ -6935,7 +7788,7 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -6949,99 +7802,99 @@
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="46" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -7049,105 +7902,105 @@
     </row>
     <row r="30" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="46" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -7155,105 +8008,105 @@
     </row>
     <row r="36" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="46" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="66"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="46" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
@@ -7261,93 +8114,93 @@
     </row>
     <row r="42" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="21"/>
     </row>
     <row r="44" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="46" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="21"/>
     </row>
     <row r="46" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J46" s="21"/>
     </row>
@@ -7359,101 +8212,101 @@
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="46" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="21"/>
     </row>
     <row r="48" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A48" s="66" t="s">
-        <v>212</v>
+      <c r="A48" s="60" t="s">
+        <v>199</v>
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H48" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J48" s="21"/>
     </row>
     <row r="49" spans="1:10" ht="54" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="21"/>
     </row>
     <row r="50" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="46" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="H52" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="J52" s="21"/>
     </row>
@@ -7465,7 +8318,7 @@
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
       <c r="G53" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -7473,25 +8326,25 @@
     </row>
     <row r="54" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J54" s="21"/>
     </row>
@@ -7503,7 +8356,7 @@
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
@@ -7516,16 +8369,16 @@
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J56" s="21"/>
     </row>
@@ -7537,7 +8390,7 @@
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="46" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
@@ -7550,16 +8403,16 @@
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G58" s="46" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J58" s="21"/>
     </row>
@@ -7571,7 +8424,7 @@
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
       <c r="G59" s="46" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -7579,25 +8432,25 @@
     </row>
     <row r="60" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A60" s="58" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G60" s="46" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="J60" s="21"/>
     </row>
@@ -7609,7 +8462,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
@@ -7622,16 +8475,16 @@
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J62" s="21"/>
     </row>
@@ -7643,7 +8496,7 @@
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="46" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
@@ -7656,16 +8509,16 @@
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G64" s="46" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J64" s="21"/>
     </row>
@@ -7677,7 +8530,7 @@
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
       <c r="G65" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -7685,25 +8538,25 @@
     </row>
     <row r="66" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A66" s="58" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G66" s="46" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J66" s="21"/>
     </row>
@@ -7715,7 +8568,7 @@
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
       <c r="G67" s="46" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
@@ -7728,16 +8581,16 @@
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G68" s="46" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J68" s="21"/>
     </row>
@@ -7749,7 +8602,7 @@
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="46" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
@@ -7762,16 +8615,16 @@
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G70" s="46" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J70" s="21"/>
     </row>
@@ -7783,7 +8636,7 @@
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
       <c r="G71" s="46" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
@@ -7816,37 +8669,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -7858,13 +8711,13 @@
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>10</v>
@@ -7872,22 +8725,22 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G10" s="21"/>
     </row>
@@ -7896,7 +8749,7 @@
       <c r="B11" s="23"/>
       <c r="C11" s="27"/>
       <c r="D11" s="21" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -7904,20 +8757,20 @@
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G12" s="21"/>
     </row>
@@ -7926,7 +8779,7 @@
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -7934,22 +8787,22 @@
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G14" s="21"/>
     </row>
@@ -7958,7 +8811,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="21" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
@@ -7992,14 +8845,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="37"/>
@@ -8007,7 +8860,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -8015,14 +8868,14 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -8030,7 +8883,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -8038,7 +8891,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -8046,7 +8899,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -8065,13 +8918,13 @@
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
@@ -8079,22 +8932,22 @@
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G11" s="21"/>
     </row>
@@ -8103,7 +8956,7 @@
       <c r="B12" s="23"/>
       <c r="C12" s="27"/>
       <c r="D12" s="21" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -8111,22 +8964,22 @@
     </row>
     <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G13" s="21"/>
     </row>
@@ -8135,7 +8988,7 @@
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="21" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -8143,22 +8996,22 @@
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -8167,7 +9020,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="27"/>
       <c r="D16" s="21" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -8175,22 +9028,22 @@
     </row>
     <row r="17" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A17" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G17" s="21"/>
     </row>
@@ -8199,7 +9052,7 @@
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="41" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -8231,7 +9084,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -8242,7 +9095,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -8254,7 +9107,7 @@
     <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -8265,7 +9118,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -8276,7 +9129,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="37"/>
@@ -8287,7 +9140,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -8297,7 +9150,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="6"/>
@@ -8308,7 +9161,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -8318,7 +9171,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -8328,7 +9181,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -8338,7 +9191,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -8348,7 +9201,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -8358,7 +9211,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -8383,68 +9236,68 @@
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="70"/>
+      <c r="A16" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="70"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G18" s="21"/>
     </row>
@@ -8453,7 +9306,7 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="21" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -8461,22 +9314,22 @@
     </row>
     <row r="20" spans="1:7" ht="56.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G20" s="21"/>
     </row>
@@ -8485,7 +9338,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="8"/>
       <c r="D21" s="21" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -8493,22 +9346,22 @@
     </row>
     <row r="22" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>125</v>
-      </c>
       <c r="D22" s="46" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G22" s="46"/>
     </row>
@@ -8517,7 +9370,7 @@
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
       <c r="D23" s="46" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="52"/>
@@ -8525,22 +9378,22 @@
     </row>
     <row r="24" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="78" t="s">
-        <v>226</v>
+      <c r="F24" s="72" t="s">
+        <v>213</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -8549,7 +9402,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="46" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
@@ -8557,22 +9410,22 @@
     </row>
     <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B26" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>128</v>
-      </c>
       <c r="D26" s="53" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>226</v>
+        <v>49</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>213</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -8581,7 +9434,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="8"/>
       <c r="D27" s="54" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="9"/>
@@ -8589,22 +9442,22 @@
     </row>
     <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="78" t="s">
-        <v>226</v>
+      <c r="F28" s="72" t="s">
+        <v>213</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -8613,7 +9466,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="8"/>
       <c r="D29" s="54" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
@@ -8627,163 +9480,629 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="63.875" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="94" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>36</v>
+      <c r="E1" s="6"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="89" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="19" t="s">
-        <v>62</v>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="89"/>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="19" t="s">
-        <v>122</v>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="89"/>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="19" t="s">
-        <v>164</v>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="89"/>
+      <c r="B5" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
+      <c r="B6" s="10" t="s">
+        <v>366</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="89"/>
+      <c r="B7" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="89"/>
+      <c r="B8" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="89"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="G10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="63" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="63" t="s">
-        <v>183</v>
-      </c>
+    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="95" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="92"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="93"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A15" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="92"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A17" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+    </row>
+    <row r="18" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="92"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="64"/>
+    </row>
+    <row r="19" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A19" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A20" s="92"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A21" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A22" s="93"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A24" s="92"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A25" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A26" s="92"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="64"/>
+    </row>
+    <row r="30" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A30" s="93"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="92"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="92"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="64"/>
+    </row>
+    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+      <c r="A35" s="91" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A36" s="92"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+      <c r="A37" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="92"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="64"/>
+    </row>
+    <row r="39" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+      <c r="A39" s="91" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" s="87"/>
+      <c r="C39" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="63"/>
+      <c r="H39" s="64"/>
+    </row>
+    <row r="40" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="92"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
+++ b/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
@@ -2684,44 +2684,6 @@
 % ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
   </si>
   <si>
-    <t>* 不正な中間認証局から発行したサーバ証明書: ./test_dir/A/server2/server.crt</t>
-    <rPh sb="2" eb="4">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニンショウキョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 不正な中間認証局から発行したクライアント証明書: ./test_dir/B/client2/client.crt </t>
-    <rPh sb="2" eb="4">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チュウカン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニンショウキョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">不正な中間認証局から発行したクライアント証明書を指定
 </t>
     <rPh sb="0" eb="2">
@@ -2748,11 +2710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストサーバー起動
-% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server2/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server2/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不正な中間認証局から発行した証明書</t>
     <rPh sb="14" eb="17">
       <t>ショウメイショ</t>
@@ -2812,45 +2769,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストクライアント起動
-% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client2/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client2/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な中間認証局から発行したクライアント証明書を指定する。
-サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
-クライアント側の --tls_certificate_file、--tls_key_fileには B/client2/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2 を指定する。</t>
-    <rPh sb="143" eb="144">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストサーバー起動
 % ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
   </si>
   <si>
     <t>テストサーバー起動
 % ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な中間認証局から発行したクライアント証明書を指定する。
-クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。
-サーバ側の --tls_certificate_file、--tls_key_fileには B/server2/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2 を指定する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストサーバー起動
-% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server2/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server2/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストクライアント起動
-% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client2/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client2/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all2 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2898,12 +2822,6 @@
   <si>
     <t>テストクライアント起動
 % ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な中間認証局から発行したサーバ・クライアント証明書を指定する。
-サーバ側の --tls_certificate_file、--tls_key_fileには B/server2/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
-クライアント側の --tls_certificate_file、--tls_key_fileには B/client2/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all2、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3027,6 +2945,82 @@
     <t>テストクライアント起動
 % ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* 不正な中間認証局から発行したサーバ証明書: ./test_dir/A/server_under_inter_ca_4/server.crt</t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 不正な中間認証局から発行したクライアント証明書: ./test_dir/B/client_under_inter_ca_4/client.crt </t>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニンショウキョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したクライアント証明書を指定する。
+サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアント側の --tls_certificate_file、--tls_key_fileには B/client_under_inter_ca_4/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all_under_inter_ca_4 を指定する。</t>
+    <rPh sb="141" eb="142">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all_under_inter_ca_4 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したクライアント証明書を指定する。
+クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。
+サーバ側の --tls_certificate_file、--tls_key_fileには B/server_under_inter_ca_4/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all_under_inter_ca_4 を指定する。</t>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server_under_inter_ca_4/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server_under_inter_ca_4/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all_under_inter_ca_4 --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>不正な中間認証局から発行したサーバ・クライアント証明書を指定する。
+サーバ側の --tls_certificate_file、--tls_key_fileには B/server_under_inter_ca_4/server.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all_under_inter_ca_4、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
+クライアント側の --tls_certificate_file、--tls_key_fileには B/client_under_inter_ca_4/client.{crt,key}、 --tls_ca_certificate_path には A_B/cacerts_all_under_inter_ca_4、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
+  </si>
+  <si>
+    <t>テストサーバー起動
+% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server_under_inter_ca_4/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server_under_inter_ca_4/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all_under_inter_ca_4 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>テストクライアント起動
+% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all_under_inter_ca_4 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
   </si>
 </sst>
 </file>
@@ -7260,12 +7254,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -9482,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9561,7 +9555,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="89"/>
       <c r="B7" s="10" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -9571,7 +9565,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="89"/>
       <c r="B8" s="10" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -9619,10 +9613,10 @@
         <v>370</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>155</v>
@@ -9632,7 +9626,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A12" s="92"/>
       <c r="B12" s="87"/>
       <c r="C12" s="67"/>
@@ -9644,7 +9638,7 @@
       <c r="G12" s="67"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="s">
         <v>355</v>
       </c>
@@ -9653,10 +9647,10 @@
         <v>371</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>155</v>
@@ -9664,7 +9658,7 @@
       <c r="G13" s="87"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="93"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
@@ -9676,7 +9670,7 @@
       <c r="G14" s="87"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="91" t="s">
         <v>356</v>
       </c>
@@ -9687,10 +9681,10 @@
         <v>370</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>156</v>
@@ -9698,7 +9692,7 @@
       <c r="G15" s="63"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="92"/>
       <c r="B16" s="87"/>
       <c r="C16" s="67"/>
@@ -9710,7 +9704,7 @@
       <c r="G16" s="67"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="91" t="s">
         <v>357</v>
       </c>
@@ -9719,10 +9713,10 @@
         <v>371</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F17" s="63" t="s">
         <v>156</v>
@@ -9730,7 +9724,7 @@
       <c r="G17" s="63"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="92"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
@@ -9753,7 +9747,7 @@
         <v>370</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>383</v>
@@ -9764,13 +9758,13 @@
       <c r="G19" s="63"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A20" s="92"/>
       <c r="B20" s="87"/>
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="64" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="67"/>
@@ -9785,7 +9779,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="86" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>383</v>
@@ -9796,13 +9790,13 @@
       <c r="G21" s="87"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A22" s="93"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
       <c r="D22" s="87"/>
       <c r="E22" s="64" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87"/>
@@ -9819,7 +9813,7 @@
         <v>370</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>383</v>
@@ -9830,13 +9824,13 @@
       <c r="G23" s="63"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A24" s="92"/>
       <c r="B24" s="87"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
       <c r="E24" s="64" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
@@ -9851,7 +9845,7 @@
         <v>371</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E25" s="64" t="s">
         <v>383</v>
@@ -9862,13 +9856,13 @@
       <c r="G25" s="63"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A26" s="92"/>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
       <c r="D26" s="67"/>
       <c r="E26" s="64" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
@@ -9885,10 +9879,10 @@
         <v>370</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F27" s="63" t="s">
         <v>155</v>
@@ -9896,13 +9890,13 @@
       <c r="G27" s="63"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A28" s="92"/>
       <c r="B28" s="87"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="64" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
@@ -9917,10 +9911,10 @@
         <v>371</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F29" s="63" t="s">
         <v>155</v>
@@ -9928,13 +9922,13 @@
       <c r="G29" s="87"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A30" s="93"/>
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
       <c r="D30" s="87"/>
       <c r="E30" s="64" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F30" s="87"/>
       <c r="G30" s="87"/>
@@ -9951,10 +9945,10 @@
         <v>370</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>156</v>
@@ -9968,7 +9962,7 @@
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
       <c r="E32" s="64" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
@@ -9983,10 +9977,10 @@
         <v>371</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F33" s="63" t="s">
         <v>156</v>
@@ -10000,7 +9994,7 @@
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="64" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
@@ -10008,19 +10002,19 @@
     </row>
     <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.15">
       <c r="A35" s="91" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D35" s="86" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F35" s="63" t="s">
         <v>156</v>
@@ -10034,7 +10028,7 @@
       <c r="C36" s="87"/>
       <c r="D36" s="67"/>
       <c r="E36" s="64" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
@@ -10042,17 +10036,17 @@
     </row>
     <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.15">
       <c r="A37" s="91" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B37" s="87"/>
       <c r="C37" s="86" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="F37" s="63" t="s">
         <v>156</v>
@@ -10066,7 +10060,7 @@
       <c r="C38" s="87"/>
       <c r="D38" s="67"/>
       <c r="E38" s="64" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
@@ -10074,17 +10068,17 @@
     </row>
     <row r="39" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A39" s="91" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B39" s="87"/>
       <c r="C39" s="86" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D39" s="86" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="F39" s="63" t="s">
         <v>156</v>
@@ -10098,7 +10092,7 @@
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
       <c r="E40" s="64" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>

--- a/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
+++ b/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/gfarm_tls_test.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="418">
   <si>
     <t>証明書</t>
     <rPh sb="0" eb="3">
@@ -2467,18 +2467,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6-7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2500,10 +2492,6 @@
   </si>
   <si>
     <t>6-10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2825,28 +2813,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6-13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6-15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tls_ca_peer_verify_chain_path にクライアント側の正しいルート証明書を指定する。
 サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
-  </si>
-  <si>
-    <t>tls_ca_peer_verify_chain_path にクライアント側の正しいルート証明書を指定する。
-サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
-  </si>
-  <si>
-    <t>テストサーバー起動
-% ./tls-test -s --tls_certificate_file ./test_dir/verify_chain_path/A/server/server.crt --tls_key_file ./test_dir/verify_chain_path/A/server/server.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/B/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
   </si>
   <si>
     <t>tls_ca_peer_verify_chain_path にクライアント側の不正なルート証明書を指定する。
@@ -2877,14 +2845,6 @@
 クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
   </si>
   <si>
-    <t>tls_ca_peer_verify_chain_path にサーバ側の正しいルート証明書を指定する。
-クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
-  </si>
-  <si>
-    <t>テストクライアント起動
-% ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/B/cacerts_all --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
-  </si>
-  <si>
     <t>tls_ca_peer_verify_chain_path にサーバ側の不正なルート証明書を指定する。
 クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。</t>
     <rPh sb="34" eb="36">
@@ -2912,11 +2872,6 @@
     <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの正しいルート証明書を指定する。
 サーバ側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
 クライアン側の --tls_ca_certificate_path にはA_B/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
-  </si>
-  <si>
-    <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの正しいルート証明書を指定する。
-サーバ側の --tls_ca_certificate_path にはA/cacerts_all、--tls_ca_peer_verify_chain_path には B/cacerts_all を指定する。
-クライアン側の --tls_ca_certificate_path にはB/cacerts_all、--tls_ca_peer_verify_chain_path には A/cacerts_all を指定する。</t>
   </si>
   <si>
     <t>tls_ca_peer_verify_chain_path にそれぞれサーバ・クライアントの不正なルート証明書を指定する。
@@ -3021,6 +2976,18 @@
   <si>
     <t>テストクライアント起動
 % ./tls-test --tls_certificate_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.crt --tls_key_file ./test_dir/verify_chain_path/B/client_under_inter_ca_4/client.key --tls_ca_certificate_path ./test_dir/verify_chain_path/A_B/cacerts_all_under_inter_ca_4 --tls_ca_peer_verify_chain_path ./test_dir/verify_chain_path/A/cacerts_all --once --mutual_authentication --allow_no_crl --build_chain --debug_level 1 --verify_only</t>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-12</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3259,7 +3226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3513,9 +3480,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -6299,7 +6263,7 @@
     <row r="7" spans="1:8" s="55" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6406,13 +6370,13 @@
         <v>163</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E14" s="57" t="s">
         <v>91</v>
@@ -7254,12 +7218,12 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -7388,7 +7352,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -9474,15 +9438,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="94" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="93" customWidth="1"/>
     <col min="2" max="2" width="41.125" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="44.125" customWidth="1"/>
@@ -9535,7 +9499,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="89"/>
       <c r="B5" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -9545,7 +9509,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="89"/>
       <c r="B6" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -9555,7 +9519,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="89"/>
       <c r="B7" s="10" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -9565,7 +9529,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="89"/>
       <c r="B8" s="10" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -9607,23 +9571,23 @@
         <v>354</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>155</v>
       </c>
       <c r="G11" s="63"/>
-      <c r="H11" s="95" t="s">
-        <v>368</v>
+      <c r="H11" s="94" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -9632,59 +9596,59 @@
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
       <c r="E12" s="64" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88" t="s">
-        <v>371</v>
+      <c r="B13" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>367</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="87"/>
+        <v>156</v>
+      </c>
+      <c r="G13" s="63"/>
       <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="64" t="s">
-        <v>382</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+        <v>379</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A15" s="91" t="s">
-        <v>356</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>370</v>
+        <v>415</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88" t="s">
+        <v>368</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>156</v>
@@ -9695,65 +9659,67 @@
     <row r="16" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="92"/>
       <c r="B16" s="87"/>
-      <c r="C16" s="67"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="67"/>
       <c r="E16" s="64" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88" t="s">
-        <v>371</v>
+        <v>356</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>367</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A18" s="92"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="67"/>
       <c r="E18" s="64" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="67"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A19" s="91" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="64"/>
@@ -9764,62 +9730,62 @@
       <c r="C20" s="67"/>
       <c r="D20" s="67"/>
       <c r="E20" s="64" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="67"/>
       <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A21" s="93" t="s">
-        <v>362</v>
+      <c r="A21" s="91" t="s">
+        <v>360</v>
       </c>
       <c r="B21" s="87"/>
       <c r="C21" s="88" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D21" s="86" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="87"/>
+        <v>156</v>
+      </c>
+      <c r="G21" s="63"/>
       <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+        <v>400</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A23" s="91" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="63"/>
       <c r="H23" s="64"/>
@@ -9830,25 +9796,27 @@
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
       <c r="E24" s="64" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A25" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88" t="s">
-        <v>371</v>
+        <v>358</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>367</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="F25" s="63" t="s">
         <v>156</v>
@@ -9859,10 +9827,10 @@
     <row r="26" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A26" s="92"/>
       <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="67"/>
       <c r="E26" s="64" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
@@ -9870,85 +9838,83 @@
     </row>
     <row r="27" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A27" s="91" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="86" t="s">
-        <v>370</v>
+        <v>361</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88" t="s">
+        <v>368</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F27" s="63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G27" s="63"/>
       <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A28" s="92"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="64" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88" t="s">
-        <v>371</v>
+    <row r="29" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="91" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>381</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="87"/>
+        <v>156</v>
+      </c>
+      <c r="G29" s="63"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
+    <row r="30" spans="1:8" ht="108" x14ac:dyDescent="0.15">
+      <c r="A30" s="92"/>
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+        <v>409</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A31" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>376</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B31" s="87"/>
       <c r="C31" s="86" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="D31" s="86" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>156</v>
@@ -9959,28 +9925,28 @@
     <row r="32" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A32" s="92"/>
       <c r="B32" s="87"/>
-      <c r="C32" s="67"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="67"/>
       <c r="E32" s="64" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A33" s="91" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="B33" s="87"/>
-      <c r="C33" s="88" t="s">
-        <v>371</v>
+      <c r="C33" s="86" t="s">
+        <v>383</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F33" s="63" t="s">
         <v>156</v>
@@ -9988,115 +9954,17 @@
       <c r="G33" s="63"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A34" s="92"/>
       <c r="B34" s="67"/>
       <c r="C34" s="67"/>
       <c r="D34" s="67"/>
       <c r="E34" s="64" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
       <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="1:8" ht="135" x14ac:dyDescent="0.15">
-      <c r="A35" s="91" t="s">
-        <v>394</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>385</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>419</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="64"/>
-    </row>
-    <row r="36" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A36" s="92"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="64"/>
-    </row>
-    <row r="37" spans="1:8" ht="135" x14ac:dyDescent="0.15">
-      <c r="A37" s="91" t="s">
-        <v>395</v>
-      </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="92"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="64"/>
-    </row>
-    <row r="39" spans="1:8" ht="162" x14ac:dyDescent="0.15">
-      <c r="A39" s="91" t="s">
-        <v>396</v>
-      </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>423</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="92"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
